--- a/biology/Biochimie/Ostéocalcine/Ostéocalcine.xlsx
+++ b/biology/Biochimie/Ostéocalcine/Ostéocalcine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ocalcine</t>
+          <t>Ostéocalcine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ostéocalcine est une hormone protéique (protéine non-collagène) spécifique des tissus osseux. Son gène est le BGLAP[5] situé sur le chromosome 1 humain.
-Cette hormone trouvée dans l'os et la dentine est sécrétée par les ostéoblastes et favorise la fixation du calcium à la substance fondamentale[6]. En médecine clinique, c'est un marqueur majeur de la formation osseuse, avec la phosphatase alcaline.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ostéocalcine est une hormone protéique (protéine non-collagène) spécifique des tissus osseux. Son gène est le BGLAP situé sur le chromosome 1 humain.
+Cette hormone trouvée dans l'os et la dentine est sécrétée par les ostéoblastes et favorise la fixation du calcium à la substance fondamentale. En médecine clinique, c'est un marqueur majeur de la formation osseuse, avec la phosphatase alcaline.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ocalcine</t>
+          <t>Ostéocalcine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéocalcine interviendrait dans le métabolisme énergétique de plusieurs manières: 
 en activant la prolifération des cellules sécrétrices d'insuline (les cellules "béta" de l'îlot de Langerhans du pancréas endocrine) ;
 en augmentant la sensibilité des cellules cibles de l'insuline, permettant de contrecarrer l'insulinorésistance touchant les diabétiques de type 2.
 L'ostéocalcine pourrait, à l'avenir, jouer un rôle majeur dans la lutte contre le diabète, en effet, bien que connu jusqu'à présent pour son rôle dans le remodelage du squelette.
-L'ostéocalcine aurait un rôle dans la fertilité en agissant sur les taux de testostérone[7].
+L'ostéocalcine aurait un rôle dans la fertilité en agissant sur les taux de testostérone.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9ocalcine</t>
+          <t>Ostéocalcine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inhibition des fonctions parasympathiques
-Lors d'un stress l'absorption du glutamate est majorée dans les cellules osseuses. Celles-ci en réponse multiplient jusqu'à quatre fois la concentration d'ostéocalcine sanguine. Ce qui a comme effet d'inhiber en quelques minutes le systèmes parasympathique et donc d'amplifier proportionnellement les réactions du système autonome sympathique[8].
+          <t>Inhibition des fonctions parasympathiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors d'un stress l'absorption du glutamate est majorée dans les cellules osseuses. Celles-ci en réponse multiplient jusqu'à quatre fois la concentration d'ostéocalcine sanguine. Ce qui a comme effet d'inhiber en quelques minutes le systèmes parasympathique et donc d'amplifier proportionnellement les réactions du système autonome sympathique.
 </t>
         </is>
       </c>
